--- a/biology/Médecine/Faculté_d'éducation_spéciale_et_de_réadaptation_de_l'université_de_Belgrade/Faculté_d'éducation_spéciale_et_de_réadaptation_de_l'université_de_Belgrade.xlsx
+++ b/biology/Médecine/Faculté_d'éducation_spéciale_et_de_réadaptation_de_l'université_de_Belgrade/Faculté_d'éducation_spéciale_et_de_réadaptation_de_l'université_de_Belgrade.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_d%27%C3%A9ducation_sp%C3%A9ciale_et_de_r%C3%A9adaptation_de_l%27universit%C3%A9_de_Belgrade</t>
+          <t>Faculté_d'éducation_spéciale_et_de_réadaptation_de_l'université_de_Belgrade</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Faculté d'éducation spéciale et de réadaptation de l'université de Belgrade (en serbe cyrillique : Факултет за специјалну едукацију и рехабилитацију Универзитета у Београду ; en serbe latin : Fakultet za specijalnu edukaciju i rehabilitaciju Univerziteta u Beogradu) est l'une des 31 facultés de l'université[1] de Belgrade, la capitale de la Serbie. Elle a été fondée en 1975[2]. En 2013, son doyen est le professeur Jasmina Kovačević[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Faculté d'éducation spéciale et de réadaptation de l'université de Belgrade (en serbe cyrillique : Факултет за специјалну едукацију и рехабилитацију Универзитета у Београду ; en serbe latin : Fakultet za specijalnu edukaciju i rehabilitaciju Univerziteta u Beogradu) est l'une des 31 facultés de l'université de Belgrade, la capitale de la Serbie. Elle a été fondée en 1975. En 2013, son doyen est le professeur Jasmina Kovačević.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_d%27%C3%A9ducation_sp%C3%A9ciale_et_de_r%C3%A9adaptation_de_l%27universit%C3%A9_de_Belgrade</t>
+          <t>Faculté_d'éducation_spéciale_et_de_réadaptation_de_l'université_de_Belgrade</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_d%27%C3%A9ducation_sp%C3%A9ciale_et_de_r%C3%A9adaptation_de_l%27universit%C3%A9_de_Belgrade</t>
+          <t>Faculté_d'éducation_spéciale_et_de_réadaptation_de_l'université_de_Belgrade</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,16 +551,18 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La faculté est divisée en 7 départements[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La faculté est divisée en 7 départements :
 Département des études générales et communes ;
-Département d'orthophonie[5] ;
-Département d'éducation spéciale et de réadaptation des personnes ayant un handicap mental[6] ;
-Département d'éducation spéciale et de réadaptation des personnes ayant un handicap moteur[7] ;
-Département de la prévention et du traitement des troubles du comportement[8] ;
-Département d'éducation spéciale et de réadaptation des personnes sourdes et malentendantes[9] ;
-Département d'éducation spéciale et de réadaptation des personnes ayant une déficience visuelle[10].</t>
+Département d'orthophonie ;
+Département d'éducation spéciale et de réadaptation des personnes ayant un handicap mental ;
+Département d'éducation spéciale et de réadaptation des personnes ayant un handicap moteur ;
+Département de la prévention et du traitement des troubles du comportement ;
+Département d'éducation spéciale et de réadaptation des personnes sourdes et malentendantes ;
+Département d'éducation spéciale et de réadaptation des personnes ayant une déficience visuelle.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_d%27%C3%A9ducation_sp%C3%A9ciale_et_de_r%C3%A9adaptation_de_l%27universit%C3%A9_de_Belgrade</t>
+          <t>Faculté_d'éducation_spéciale_et_de_réadaptation_de_l'université_de_Belgrade</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
